--- a/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_2_participant_bay.xlsx
+++ b/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_2_participant_bay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\mar_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6245AE-B0D9-4DE0-A811-AB2BC94DA337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F024C3E-C5A4-464A-9CAF-E835499A7D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
   <si>
     <t>type</t>
   </si>
@@ -78,12 +78,6 @@
     <t>If you are the only recorder on your team, this may be called a "team ID". Recorder ID is the 2-digit code assigned to you or your team.</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{2}$')</t>
-  </si>
-  <si>
-    <t>The code must be a two-digit number between 9 and 100</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -285,13 +279,58 @@
     <t>barcode</t>
   </si>
   <si>
-    <t>(2024 Mar) Nigeria - 2. TAS1 LF Participants Form - Bayelsa</t>
-  </si>
-  <si>
-    <t>ng_p_202403</t>
-  </si>
-  <si>
-    <t>ng_lf_tas_202403_2_participant_bay</t>
+    <t>team</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>select_one team</t>
+  </si>
+  <si>
+    <t>(2024 Mar) Nigeria - 2. TAS1 LF Participants Form - Bayelsa V2</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_202403_2_participant_bay_v2</t>
+  </si>
+  <si>
+    <t>ng_p_202403_v2</t>
+  </si>
+  <si>
+    <t>Select your EU</t>
+  </si>
+  <si>
+    <t>p_eu</t>
   </si>
 </sst>
 </file>
@@ -453,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -534,6 +573,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,13 +855,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -826,7 +871,7 @@
     <col min="3" max="3" width="42.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="41.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.375" style="6" customWidth="1"/>
     <col min="9" max="9" width="51.125" style="6" bestFit="1" customWidth="1"/>
@@ -883,7 +928,7 @@
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="47.25">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>15</v>
@@ -894,146 +939,140 @@
       <c r="D2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="J2" s="23" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="D3" s="23"/>
       <c r="G3" s="23"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:14" s="7" customFormat="1">
       <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" s="23"/>
-      <c r="F4" s="26"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="23"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" s="7" customFormat="1">
-      <c r="A7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="19"/>
-    </row>
-    <row r="8" spans="1:14" s="7" customFormat="1">
-      <c r="A8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8" t="s">
+      <c r="B8" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1">
       <c r="A9" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
@@ -1042,7 +1081,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="9"/>
       <c r="I9" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1050,197 +1089,218 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:14" s="7" customFormat="1">
-      <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
+      <c r="A10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:14" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="23" t="s">
-        <v>34</v>
-      </c>
+      <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="12" spans="1:14" s="7" customFormat="1">
       <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="1:14" s="7" customFormat="1" ht="31.5">
+    <row r="13" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="1:14" s="7" customFormat="1" ht="31.5">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="F14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="G14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="F13" s="7" t="s">
+      <c r="H14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="7" customFormat="1">
+      <c r="A15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="C15" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="7" customFormat="1" ht="31.5">
+      <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="7" customFormat="1">
-      <c r="A14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="B16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="H16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:13" s="7" customFormat="1">
+      <c r="A17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="F17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="G17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="7" customFormat="1" ht="31.5">
-      <c r="A15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="H15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:14" s="7" customFormat="1">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="23" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:13" s="7" customFormat="1">
+      <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="B19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="F16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-    </row>
-    <row r="18" spans="1:13" s="7" customFormat="1">
-      <c r="A18" s="7" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B20" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1251,11 +1311,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD67"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1267,7 +1327,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1276,79 +1336,204 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6" s="31" customFormat="1">
+      <c r="A2" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="31" customFormat="1">
+      <c r="A3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="31" customFormat="1">
+      <c r="A4" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="31" customFormat="1">
+      <c r="A5" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="31" customFormat="1">
+      <c r="A6" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="31" customFormat="1">
+      <c r="A7" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="31" customFormat="1">
+      <c r="A8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="31" customFormat="1">
+      <c r="A9" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="31" customFormat="1">
+      <c r="A10" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="31" customFormat="1">
+      <c r="A11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="31" customFormat="1">
+      <c r="A12" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="31" customFormat="1">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="C19" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1546,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1374,24 +1559,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_2_participant_bay.xlsx
+++ b/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_2_participant_bay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\mar_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F024C3E-C5A4-464A-9CAF-E835499A7D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA8095-E907-4B8B-BB37-A0FDB589ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,10 +327,10 @@
     <t>ng_p_202403_v2</t>
   </si>
   <si>
-    <t>Select your EU</t>
-  </si>
-  <si>
-    <t>p_eu</t>
+    <t>Select your state</t>
+  </si>
+  <si>
+    <t>p_region</t>
   </si>
 </sst>
 </file>
@@ -858,7 +858,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
